--- a/BOM_PCBWay.xlsx
+++ b/BOM_PCBWay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiltum/projects/arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B15EE05-216D-E44C-B121-9FA6D4071D39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3B53D5-4FEB-514A-88A8-D8CA7EAF08AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -996,7 +996,7 @@
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="68.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="84" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" style="19" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="35.6640625" style="1" customWidth="1"/>
